--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_pca.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_pca.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,59 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>PC8</t>
-  </si>
-  <si>
-    <t>FEATURE1</t>
-  </si>
-  <si>
-    <t>FEATURE2</t>
-  </si>
-  <si>
-    <t>FEATURE3</t>
-  </si>
-  <si>
-    <t>FEATURE4</t>
-  </si>
-  <si>
-    <t>FEATURE5</t>
-  </si>
-  <si>
-    <t>FEATURE6</t>
-  </si>
-  <si>
-    <t>FEATURE7</t>
-  </si>
-  <si>
-    <t>FEATURE8</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -103,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,266 +433,298 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PC5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PC6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PC7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PC8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FEATURE1</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3754016470124535</v>
+        <v>-0.3754016470124538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6179108824663032</v>
+        <v>0.6179108824663042</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1685772326379023</v>
+        <v>-0.1685772326379018</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1024835364366033</v>
+        <v>0.1024835364366021</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1599804811631136</v>
+        <v>-0.1599804811631139</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07800192063962048</v>
+        <v>-0.0780019206396232</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06288644660718308</v>
+        <v>0.06288644660718265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6345910706920764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
+        <v>-0.6345910706920769</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FEATURE2</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4181549096342324</v>
+        <v>-0.4181549096342321</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09633045539348314</v>
+        <v>-0.09633045539348244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03254658457313386</v>
+        <v>0.03254658457313375</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02053036317835731</v>
+        <v>-0.02053036317835839</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6031782615843204</v>
+        <v>0.603178261584321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.128520268467668</v>
+        <v>0.1285202684676752</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6525174282384096</v>
+        <v>-0.6525174282384086</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09091573088914123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>10</v>
+        <v>-0.09091573088914173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FEATURE3</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4625421078947443</v>
+        <v>-0.4625421078947447</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005639918234394096</v>
+        <v>0.005639918234393269</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1334643411855315</v>
+        <v>-0.1334643411855318</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0236392979675294</v>
+        <v>-0.02363929796753021</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03441647891414798</v>
+        <v>-0.03441647891414323</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7674242378047196</v>
+        <v>-0.7674242378047194</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0483828245975436</v>
+        <v>0.04838282459753873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.418552374814755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>11</v>
+        <v>0.4185523748147563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FEATURE4</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.450464918981811</v>
+        <v>-0.4504649189818114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1698464688754771</v>
+        <v>0.1698464688754766</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02010114291905369</v>
+        <v>-0.02010114291905413</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04021678358414076</v>
+        <v>0.04021678358414141</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4651458522506015</v>
+        <v>-0.4651458522506052</v>
       </c>
       <c r="G5" t="n">
-        <v>0.550037797558303</v>
+        <v>0.550037797558302</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1272893221872554</v>
+        <v>-0.1272893221872526</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4807361792055158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>12</v>
+        <v>0.4807361792055154</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FEATURE5</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4258163979904109</v>
+        <v>-0.425816397990411</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2000275407038782</v>
+        <v>-0.2000275407038781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06325790366089164</v>
+        <v>0.06325790366089189</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06426040817029222</v>
+        <v>-0.06426040817029148</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4031450561921401</v>
+        <v>0.4031450561921385</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2577920631912798</v>
+        <v>0.2577920631912776</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7352719648863353</v>
+        <v>0.7352719648863374</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03051014920078737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>13</v>
+        <v>-0.03051014920078782</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FEATURE6</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2766401456428415</v>
+        <v>-0.2766401456428416</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.661839542071046</v>
+        <v>-0.661839542071047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0661914220506899</v>
+        <v>0.06619142205069108</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2508763389966098</v>
+        <v>-0.250876338996609</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4745572915940728</v>
+        <v>-0.4745572915940726</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0577140066086804</v>
+        <v>-0.05771400660868292</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1049835764977039</v>
+        <v>-0.1049835764977042</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4225651756241665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>14</v>
+        <v>-0.4225651756241668</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FEATURE7</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008858896347248053</v>
+        <v>0.008858896347248089</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3146095281750008</v>
+        <v>-0.3146095281749999</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6582794207810645</v>
+        <v>-0.6582794207810685</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6795508179947799</v>
+        <v>0.6795508179947767</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004044033777972144</v>
+        <v>0.004044033777972442</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0669501603569506</v>
+        <v>0.06695016035695081</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008408075482848207</v>
+        <v>0.008408075482847749</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03538192704531937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>15</v>
+        <v>-0.03538192704532053</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FEATURE8</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09709982047773874</v>
+        <v>0.0970998204777388</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05481971651594746</v>
+        <v>0.05481971651594786</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7145564971375699</v>
+        <v>-0.7145564971375662</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6767878331449463</v>
+        <v>-0.6767878331449503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07273347898791561</v>
+        <v>0.0727334789879138</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1079199846252792</v>
+        <v>0.1079199846252804</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.002392071056553481</v>
+        <v>-0.002392071056552413</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04462130431319477</v>
+        <v>0.04462130431319426</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_pca.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_pca.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,59 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>FEATURE1</t>
+  </si>
+  <si>
+    <t>FEATURE2</t>
+  </si>
+  <si>
+    <t>FEATURE3</t>
+  </si>
+  <si>
+    <t>FEATURE4</t>
+  </si>
+  <si>
+    <t>FEATURE5</t>
+  </si>
+  <si>
+    <t>FEATURE6</t>
+  </si>
+  <si>
+    <t>FEATURE7</t>
+  </si>
+  <si>
+    <t>FEATURE8</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,89 +103,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -433,298 +419,266 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PC1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PC2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PC3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PC4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PC5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PC6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PC7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PC8</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FEATURE1</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3754016470124538</v>
+        <v>-0.3754016470124535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6179108824663042</v>
+        <v>0.6179108824663032</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1685772326379018</v>
+        <v>-0.1685772326379023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1024835364366021</v>
+        <v>0.1024835364366033</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1599804811631139</v>
+        <v>-0.1599804811631136</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0780019206396232</v>
+        <v>-0.07800192063962048</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06288644660718265</v>
+        <v>0.06288644660718308</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6345910706920769</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FEATURE2</t>
-        </is>
+        <v>-0.6345910706920764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4181549096342321</v>
+        <v>-0.4181549096342324</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09633045539348244</v>
+        <v>-0.09633045539348314</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03254658457313375</v>
+        <v>0.03254658457313386</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02053036317835839</v>
+        <v>-0.02053036317835731</v>
       </c>
       <c r="F3" t="n">
-        <v>0.603178261584321</v>
+        <v>0.6031782615843204</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1285202684676752</v>
+        <v>0.128520268467668</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6525174282384086</v>
+        <v>-0.6525174282384096</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09091573088914173</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>FEATURE3</t>
-        </is>
+        <v>-0.09091573088914123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4625421078947447</v>
+        <v>-0.4625421078947443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005639918234393269</v>
+        <v>0.005639918234394096</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1334643411855318</v>
+        <v>-0.1334643411855315</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02363929796753021</v>
+        <v>-0.0236392979675294</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03441647891414323</v>
+        <v>-0.03441647891414798</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7674242378047194</v>
+        <v>-0.7674242378047196</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04838282459753873</v>
+        <v>0.0483828245975436</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4185523748147563</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FEATURE4</t>
-        </is>
+        <v>0.418552374814755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4504649189818114</v>
+        <v>-0.450464918981811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1698464688754766</v>
+        <v>0.1698464688754771</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02010114291905413</v>
+        <v>-0.02010114291905369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04021678358414141</v>
+        <v>0.04021678358414076</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4651458522506052</v>
+        <v>-0.4651458522506015</v>
       </c>
       <c r="G5" t="n">
-        <v>0.550037797558302</v>
+        <v>0.550037797558303</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1272893221872526</v>
+        <v>-0.1272893221872554</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4807361792055154</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FEATURE5</t>
-        </is>
+        <v>0.4807361792055158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.425816397990411</v>
+        <v>-0.4258163979904109</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2000275407038781</v>
+        <v>-0.2000275407038782</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06325790366089189</v>
+        <v>0.06325790366089164</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06426040817029148</v>
+        <v>-0.06426040817029222</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4031450561921385</v>
+        <v>0.4031450561921401</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2577920631912776</v>
+        <v>0.2577920631912798</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7352719648863374</v>
+        <v>0.7352719648863353</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03051014920078782</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FEATURE6</t>
-        </is>
+        <v>-0.03051014920078737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2766401456428416</v>
+        <v>-0.2766401456428415</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.661839542071047</v>
+        <v>-0.661839542071046</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06619142205069108</v>
+        <v>0.0661914220506899</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.250876338996609</v>
+        <v>-0.2508763389966098</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4745572915940726</v>
+        <v>-0.4745572915940728</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05771400660868292</v>
+        <v>-0.0577140066086804</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1049835764977042</v>
+        <v>-0.1049835764977039</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4225651756241668</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FEATURE7</t>
-        </is>
+        <v>-0.4225651756241665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008858896347248089</v>
+        <v>0.008858896347248053</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3146095281749999</v>
+        <v>-0.3146095281750008</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6582794207810685</v>
+        <v>-0.6582794207810645</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6795508179947767</v>
+        <v>0.6795508179947799</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004044033777972442</v>
+        <v>0.004044033777972144</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06695016035695081</v>
+        <v>0.0669501603569506</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008408075482847749</v>
+        <v>0.008408075482848207</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03538192704532053</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FEATURE8</t>
-        </is>
+        <v>-0.03538192704531937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0970998204777388</v>
+        <v>0.09709982047773874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05481971651594786</v>
+        <v>0.05481971651594746</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7145564971375662</v>
+        <v>-0.7145564971375699</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6767878331449503</v>
+        <v>-0.6767878331449463</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0727334789879138</v>
+        <v>0.07273347898791561</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1079199846252804</v>
+        <v>0.1079199846252792</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.002392071056552413</v>
+        <v>-0.002392071056553481</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04462130431319426</v>
+        <v>0.04462130431319477</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>